--- a/Chapter 3/Ch03_Revised Super Grain.xlsx
+++ b/Chapter 3/Ch03_Revised Super Grain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5509/Chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2234E-342A-3144-87D1-872FDE286CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A76685-1699-4845-813F-22FD870BABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="28800" windowHeight="15900" tabRatio="754" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revised Super Grain" sheetId="10" r:id="rId1"/>
@@ -875,7 +875,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="F7" s="10">
         <f>SUMPRODUCT(C7:E7,NumberOfAds)</f>
-        <v>0</v>
+        <v>3775.0000000000018</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>54</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F8" s="10">
         <f>SUMPRODUCT(C8:E8,NumberOfAds)</f>
-        <v>0</v>
+        <v>1000.0000000000002</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>54</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F11" s="3">
         <f>SUMPRODUCT(C11:E11,NumberOfAds)</f>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>55</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F12" s="3">
         <f>SUMPRODUCT(C12:E12,NumberOfAds)</f>
-        <v>0</v>
+        <v>5.8500000000000014</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>55</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F15" s="10">
         <f>SUMPRODUCT(CouponRedemptionPerAd,NumberOfAds)</f>
-        <v>0</v>
+        <v>1489.9999999999995</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1243,17 +1243,17 @@
         <v>8</v>
       </c>
       <c r="C19" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="16">
-        <v>0</v>
+        <v>14.000000000000014</v>
       </c>
       <c r="E19" s="17">
-        <v>0</v>
+        <v>7.7499999999999929</v>
       </c>
       <c r="H19" s="20">
         <f>SUMPRODUCT(ExposuresPerAd,NumberOfAds)</f>
-        <v>0</v>
+        <v>16175.000000000005</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
